--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Desktop\Python\WhatsAppBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E554CC8-9D4F-4121-9DB0-FB84835C46A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE16FDE-8B2A-4376-B005-9060170C6E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E325B3B2-173F-4F34-926E-15069DE1F123}"/>
   </bookViews>
@@ -35,36 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
-  <si>
-    <t>Kareen</t>
-  </si>
-  <si>
-    <t>(21) 98379-6326</t>
-  </si>
-  <si>
-    <t>Tania</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Henrique</t>
-  </si>
-  <si>
-    <t>João</t>
-  </si>
-  <si>
-    <t>Adriana</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Guilherme</t>
-  </si>
-  <si>
-    <t>Beatriz</t>
-  </si>
-  <si>
-    <t>Thais</t>
   </si>
   <si>
     <t>Nomes</t>
@@ -72,13 +45,24 @@
   <si>
     <t>Contato</t>
   </si>
+  <si>
+    <t>(21) ))))))))))98379            6326</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -106,8 +90,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93556C7-2AC7-46B8-AFBA-5B9F67C58B3E}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,87 +419,30 @@
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7 Abril\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Desktop\Python\WhatsAppBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF92207-157A-4040-9D2E-D66F2125493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inad" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inad!$A$1:$B$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inad!$A$1:$B$20</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,66 +28,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>NOME</t>
-  </si>
-  <si>
-    <t>TELEFONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRYELE </t>
-  </si>
-  <si>
-    <t>(21) 96994-6857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDVAN </t>
-  </si>
-  <si>
-    <t>(21) 96424-5089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERICSON </t>
-  </si>
-  <si>
-    <t>(21) 98242-7529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESMERALDA </t>
-  </si>
-  <si>
-    <t>(21) 97306-1787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVANDRO </t>
-  </si>
-  <si>
-    <t>(21) 980081872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABIO </t>
-  </si>
-  <si>
-    <t>(21) 97880-2055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAVIO </t>
-  </si>
-  <si>
-    <t>(21) 97604-4767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCIELI </t>
-  </si>
-  <si>
-    <t>(21) 98600-2283</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>GABRIEL DA SILVA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>(21) 98214-8125</t>
+  </si>
+  <si>
+    <t>GABRIELE DUARTE DA PAIXAO SILVA</t>
+  </si>
+  <si>
+    <t>(21) 98075-7663</t>
+  </si>
+  <si>
+    <t>GISELA LONAS DE AZEVEDO</t>
+  </si>
+  <si>
+    <t>(21) 99255-0608</t>
+  </si>
+  <si>
+    <t>GISELE SILVA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>(21) 96530-0560</t>
+  </si>
+  <si>
+    <t>GISELLE MARIANE ARCHANJO DA SILVA</t>
+  </si>
+  <si>
+    <t>(21) 98427-4404</t>
+  </si>
+  <si>
+    <t>GLEYBSON RONY CAITANO DO NASCIMENTO</t>
+  </si>
+  <si>
+    <t>(21) 98739-1352</t>
+  </si>
+  <si>
+    <t>IGOR DA SILVA ALMEIDA</t>
+  </si>
+  <si>
+    <t>(21) 96430-0214</t>
+  </si>
+  <si>
+    <t>INGRIDY VALESCA DOS SANTOS GOMES</t>
+  </si>
+  <si>
+    <t>(21) 98278-1725</t>
+  </si>
+  <si>
+    <t>ISAIAS DE OLIVEIRA DA CRUZ CAETANO</t>
+  </si>
+  <si>
+    <t>(21) 97625-5723</t>
+  </si>
+  <si>
+    <t>JANAINA THOME MEDEIROS DOS SANTOS LOPES</t>
+  </si>
+  <si>
+    <t>(21) 99197-5774</t>
+  </si>
+  <si>
+    <t>JAQUELINE SANTANA ALELUIA</t>
+  </si>
+  <si>
+    <t>(21) 96461-6857</t>
+  </si>
+  <si>
+    <t>JAYANE WITORIA DE FARIAS LEMOS</t>
+  </si>
+  <si>
+    <t>(21) 98788-1456</t>
+  </si>
+  <si>
+    <t>JEAN MANZONI TORRES</t>
+  </si>
+  <si>
+    <t>(21) 96414-2735</t>
+  </si>
+  <si>
+    <t>JESSICA BEATRIZ HENRIQUE DOS SANTOS PEREIRA</t>
+  </si>
+  <si>
+    <t>(21) 97476-2285</t>
+  </si>
+  <si>
+    <t>JOELSON JOSE DE SOUZA</t>
+  </si>
+  <si>
+    <t>(21) 97933-7414</t>
+  </si>
+  <si>
+    <t>JORGE LUIZ DE PAULA CORREA</t>
+  </si>
+  <si>
+    <t>(21) 97474-2225</t>
+  </si>
+  <si>
+    <t>JOSE EDSON DE JESUS</t>
+  </si>
+  <si>
+    <t>(21) 96785-5950</t>
+  </si>
+  <si>
+    <t>JOSE VITOR SIQUEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>(21) 97201-6291</t>
+  </si>
+  <si>
+    <t>JULIA MONTEIRO DE MESQUITA</t>
+  </si>
+  <si>
+    <t>(21) 98136-1930</t>
+  </si>
+  <si>
+    <t>Nomes</t>
+  </si>
+  <si>
+    <t>Contato</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,8 +230,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,11 +512,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,78 +527,166 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B9"/>
+  <autoFilter ref="A1:B20" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>